--- a/TestInput/InputSheet.xlsx
+++ b/TestInput/InputSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13305" windowHeight="11190" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13308" windowHeight="11196"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="SupplierCreation" sheetId="3" r:id="rId3"/>
     <sheet name="StockCategories" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>TableValidation</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -808,19 +805,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -846,7 +843,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="23.4">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -854,11 +851,11 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="23.4">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -866,7 +863,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -880,21 +877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
+    <row r="1" spans="1:6" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6" ht="23.4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -932,7 +929,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6" ht="23.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -950,7 +947,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -968,7 +965,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -986,7 +983,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25">
+    <row r="6" spans="1:6" ht="23.4">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1001,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6" ht="23.4">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1019,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25">
+    <row r="8" spans="1:6" ht="23.4">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1037,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="23.25">
+    <row r="9" spans="1:6" ht="23.4">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1055,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="23.25">
+    <row r="10" spans="1:6" ht="23.4">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1073,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="23.25">
+    <row r="11" spans="1:6" ht="23.4">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1089,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="23.25">
+    <row r="12" spans="1:6" ht="23.4">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +1107,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="23.25">
+    <row r="13" spans="1:6" ht="23.4">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1123,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="23.25">
+    <row r="14" spans="1:6" ht="23.4">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1158,13 +1155,13 @@
       <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -1187,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6" ht="23.4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1202,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6" ht="23.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1220,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1238,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1256,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25">
+    <row r="6" spans="1:6" ht="23.4">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1274,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6" ht="23.4">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1292,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25">
+    <row r="8" spans="1:6" ht="23.4">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1310,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="23.25">
+    <row r="9" spans="1:6" ht="23.4">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="23.25">
+    <row r="41" spans="1:6" ht="23.4">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -1918,16 +1915,16 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -1950,7 +1947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6" ht="23.4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1965,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6" ht="23.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1986,7 +1983,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6" ht="23.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2001,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25">
+    <row r="5" spans="1:6" ht="23.4">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2019,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25">
+    <row r="6" spans="1:6" ht="23.4">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2037,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6" ht="23.4">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2058,7 +2055,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25">
+    <row r="8" spans="1:6" ht="23.4">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2073,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="23.25">
+    <row r="9" spans="1:6" ht="23.4">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
